--- a/BDD/BDD_Festival.xlsx
+++ b/BDD/BDD_Festival.xlsx
@@ -1,44 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moi\Documents\GitHub\WDPII\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Documents\GitHub\WDPII\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53829943-DD05-4223-8BD6-83C17883207B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="5660" yWindow="340" windowWidth="13330" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -60,11 +47,17 @@
   <si>
     <t>7.368e-08 x - 2.433e-05 x + 0.003077 x - 0.186 x + 5.43 x - 66.77 x + 307.5</t>
   </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,62 +120,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Quartier mal fréquenté"/>
-      <sheetName val="Quartier aisé"/>
-      <sheetName val="Chantier"/>
-      <sheetName val="Déménagement"/>
-      <sheetName val="Espace verts"/>
-      <sheetName val="Discothèque"/>
-      <sheetName val="Festival"/>
-      <sheetName val="Groupe scolaire"/>
-      <sheetName val="Groupe scolaire + espace vert"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>44927</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Nocivité</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,16 +418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M106"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,8 +443,12 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -515,7 +456,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44927</v>
       </c>
@@ -531,8 +472,12 @@
       <c r="E2" s="1">
         <v>307.5</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.17</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -540,7 +485,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44934</v>
       </c>
@@ -565,7 +510,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44941</v>
       </c>
@@ -590,7 +535,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44948</v>
       </c>
@@ -615,7 +560,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44955</v>
       </c>
@@ -640,7 +585,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44962</v>
       </c>
@@ -667,7 +612,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44969</v>
       </c>
@@ -694,7 +639,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44976</v>
       </c>
@@ -719,7 +664,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44983</v>
       </c>
@@ -744,7 +689,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44990</v>
       </c>
@@ -769,7 +714,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44997</v>
       </c>
@@ -794,7 +739,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45004</v>
       </c>
@@ -819,7 +764,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45011</v>
       </c>
@@ -844,7 +789,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45018</v>
       </c>
@@ -869,7 +814,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45025</v>
       </c>
@@ -894,7 +839,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45032</v>
       </c>
@@ -919,7 +864,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>45039</v>
       </c>
@@ -944,7 +889,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>45046</v>
       </c>
@@ -969,7 +914,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45053</v>
       </c>
@@ -994,7 +939,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>45060</v>
       </c>
@@ -1019,7 +964,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>45067</v>
       </c>
@@ -1044,7 +989,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>45074</v>
       </c>
@@ -1069,7 +1014,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>45081</v>
       </c>
@@ -1094,7 +1039,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>45088</v>
       </c>
@@ -1119,7 +1064,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>45095</v>
       </c>
@@ -1144,7 +1089,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>45102</v>
       </c>
@@ -1169,7 +1114,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>45109</v>
       </c>
@@ -1194,7 +1139,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>45116</v>
       </c>
@@ -1219,7 +1164,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>45123</v>
       </c>
@@ -1244,7 +1189,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>45130</v>
       </c>
@@ -1269,7 +1214,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>45137</v>
       </c>
@@ -1294,7 +1239,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>45144</v>
       </c>
@@ -1319,7 +1264,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>45151</v>
       </c>
@@ -1344,7 +1289,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>45158</v>
       </c>
@@ -1369,7 +1314,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>45165</v>
       </c>
@@ -1394,7 +1339,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>45172</v>
       </c>
@@ -1419,7 +1364,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>45179</v>
       </c>
@@ -1444,7 +1389,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>45186</v>
       </c>
@@ -1469,7 +1414,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>45193</v>
       </c>
@@ -1494,7 +1439,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>45200</v>
       </c>
@@ -1519,7 +1464,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>45207</v>
       </c>
@@ -1544,7 +1489,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>45214</v>
       </c>
@@ -1569,7 +1514,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>45221</v>
       </c>
@@ -1594,7 +1539,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>45228</v>
       </c>
@@ -1619,7 +1564,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45235</v>
       </c>
@@ -1644,7 +1589,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45242</v>
       </c>
@@ -1669,7 +1614,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>45249</v>
       </c>
@@ -1694,7 +1639,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>45256</v>
       </c>
@@ -1719,7 +1664,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>45263</v>
       </c>
@@ -1744,7 +1689,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>45270</v>
       </c>
@@ -1769,7 +1714,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>45277</v>
       </c>
@@ -1794,7 +1739,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>45284</v>
       </c>
@@ -1819,7 +1764,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>45291</v>
       </c>
@@ -1844,7 +1789,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>45298</v>
       </c>
@@ -1869,7 +1814,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>45305</v>
       </c>
@@ -1894,7 +1839,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>45312</v>
       </c>
@@ -1919,7 +1864,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>45319</v>
       </c>
@@ -1944,7 +1889,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>45326</v>
       </c>
@@ -1969,7 +1914,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>45333</v>
       </c>
@@ -1994,7 +1939,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>45340</v>
       </c>
@@ -2019,7 +1964,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>45347</v>
       </c>
@@ -2044,7 +1989,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>45354</v>
       </c>
@@ -2069,7 +2014,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>45361</v>
       </c>
@@ -2094,7 +2039,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>45368</v>
       </c>
@@ -2119,7 +2064,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>45375</v>
       </c>
@@ -2144,7 +2089,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>45382</v>
       </c>
@@ -2169,7 +2114,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>45389</v>
       </c>
@@ -2194,7 +2139,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>45396</v>
       </c>
@@ -2219,7 +2164,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>45403</v>
       </c>
@@ -2244,7 +2189,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>45410</v>
       </c>
@@ -2269,7 +2214,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>45417</v>
       </c>
@@ -2294,7 +2239,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>45424</v>
       </c>
@@ -2319,7 +2264,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>45431</v>
       </c>
@@ -2344,7 +2289,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>45438</v>
       </c>
@@ -2369,7 +2314,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>45445</v>
       </c>
@@ -2394,7 +2339,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>45452</v>
       </c>
@@ -2419,7 +2364,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>45459</v>
       </c>
@@ -2444,7 +2389,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>45466</v>
       </c>
@@ -2469,7 +2414,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>45473</v>
       </c>
@@ -2494,7 +2439,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>45480</v>
       </c>
@@ -2519,7 +2464,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>45487</v>
       </c>
@@ -2544,7 +2489,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>45494</v>
       </c>
@@ -2569,7 +2514,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>45501</v>
       </c>
@@ -2594,7 +2539,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>45508</v>
       </c>
@@ -2617,7 +2562,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>45515</v>
       </c>
@@ -2640,7 +2585,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>45522</v>
       </c>
@@ -2663,7 +2608,7 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>45529</v>
       </c>
@@ -2686,7 +2631,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>45536</v>
       </c>
@@ -2709,7 +2654,7 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>45543</v>
       </c>
@@ -2732,7 +2677,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>45550</v>
       </c>
@@ -2755,7 +2700,7 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>45557</v>
       </c>
@@ -2778,7 +2723,7 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>45564</v>
       </c>
@@ -2801,7 +2746,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>45571</v>
       </c>
@@ -2824,7 +2769,7 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>45578</v>
       </c>
@@ -2847,7 +2792,7 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>45585</v>
       </c>
@@ -2870,7 +2815,7 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45592</v>
       </c>
@@ -2893,7 +2838,7 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>45599</v>
       </c>
@@ -2916,7 +2861,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>45606</v>
       </c>
@@ -2939,7 +2884,7 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>45613</v>
       </c>
@@ -2962,7 +2907,7 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>45620</v>
       </c>
@@ -2985,7 +2930,7 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>45627</v>
       </c>
@@ -3008,7 +2953,7 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>45634</v>
       </c>
@@ -3031,7 +2976,7 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>45641</v>
       </c>
@@ -3054,7 +2999,7 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>45648</v>
       </c>
@@ -3077,7 +3022,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>45655</v>
       </c>
